--- a/medicine/Sexualité et sexologie/Tabou_(maison_d'édition)/Tabou_(maison_d'édition).xlsx
+++ b/medicine/Sexualité et sexologie/Tabou_(maison_d'édition)/Tabou_(maison_d'édition).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tabou_(maison_d%27%C3%A9dition)</t>
+          <t>Tabou_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tabou_(maison_d%27%C3%A9dition)</t>
+          <t>Tabou_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tabou est une marque éditoriale des Éditions de l'Éveil fondée en 2004 par Thierry Plée[1],[2]. Spécialisée dans le domaine de l'érotisme et de la sexualité, elle publie des romans, des nouvelles, des guides, et des bandes dessinées[3],[4]. Les Éditions de l'Éveil ont également une autre marque éditoriale nommée Graph Zeppelin qui propose elle des comics tous publics[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tabou est une marque éditoriale des Éditions de l'Éveil fondée en 2004 par Thierry Plée,. Spécialisée dans le domaine de l'érotisme et de la sexualité, elle publie des romans, des nouvelles, des guides, et des bandes dessinées,. Les Éditions de l'Éveil ont également une autre marque éditoriale nommée Graph Zeppelin qui propose elle des comics tous publics.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tabou_(maison_d%27%C3%A9dition)</t>
+          <t>Tabou_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
